--- a/Data/3_MC_RECC_industry_V1.0.xlsx
+++ b/Data/3_MC_RECC_industry_V1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -198,9 +198,6 @@
     <t>DATA_Info</t>
   </si>
   <si>
-    <t>Products_m3</t>
-  </si>
-  <si>
     <t xml:space="preserve"># Aspects: Specify aspects in order of appearance in data table. </t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>Mean lifetime</t>
   </si>
   <si>
-    <t>good g</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -682,13 +676,19 @@
   </si>
   <si>
     <t>high</t>
+  </si>
+  <si>
+    <t>Sector_industry</t>
+  </si>
+  <si>
+    <t>Industry I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,6 +727,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -748,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -756,11 +763,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -790,9 +813,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1107,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1378,7 +1407,7 @@
         <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>54</v>
@@ -1400,10 +1429,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>56</v>
@@ -1422,17 +1451,17 @@
       <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>72</v>
+      <c r="A23" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>219</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>14</v>
@@ -1440,7 +1469,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1448,16 +1477,16 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>14</v>
@@ -1465,7 +1494,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1474,10 +1503,10 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
       <c r="C25" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>14</v>
@@ -1485,7 +1514,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1493,10 +1522,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C26" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>14</v>
@@ -1504,7 +1533,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1561,7 +1590,7 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -1599,9 +1628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I937"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1611,23 +1638,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>58</v>
+      <c r="A1" s="23" t="s">
+        <v>218</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1635,13 +1662,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>0.76200000000000001</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
         <v>33</v>
@@ -1652,13 +1679,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>3.6295000000000002</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>33</v>
@@ -1669,13 +1696,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="9">
         <v>1.1459999999999999</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>33</v>
@@ -1686,13 +1713,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="9">
         <v>3.1459999999999999</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>33</v>
@@ -1703,13 +1730,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>1.0515000000000001</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>33</v>
@@ -1720,13 +1747,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>5.5149999999999997</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>33</v>
@@ -1737,13 +1764,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8">
         <v>0.5</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>33</v>
@@ -1754,13 +1781,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9">
         <v>1.6990000000000001</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>33</v>
@@ -1771,13 +1798,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>0.76500000000000001</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>33</v>
@@ -1788,13 +1815,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>0.76200000000000001</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>33</v>
@@ -1805,13 +1832,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12">
         <v>6.3420000000000014</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>33</v>
@@ -1822,13 +1849,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>5.5715000000000003</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>33</v>
@@ -1839,13 +1866,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14">
         <v>2.7305000000000001</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>33</v>
@@ -1853,16 +1880,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C15" s="9">
         <v>1.6300000000000001</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>33</v>
@@ -6480,505 +6507,505 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" s="20"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="20"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C23" s="20"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C30" s="20"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C31" s="20"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C32" s="20"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C33" s="20"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C34" s="20"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C35" s="20"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C36" s="20"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C37" s="20"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C38" s="20"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C39" s="20"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C40" s="20"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C41" s="20"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C42" s="20"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C43" s="20"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C44" s="20"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C45" s="20"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C46" s="20"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C47" s="20"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C54" s="20"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C63" s="20"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C64" s="20"/>
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B65" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C65" s="20"/>
     </row>
     <row r="66" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B66" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C66" s="20"/>
     </row>
     <row r="67" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B67" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C67" s="20"/>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B68" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C68" s="20"/>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B69" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C69" s="20"/>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B70" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B74" s="20"/>
       <c r="E74" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F74" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="X74" s="20"/>
       <c r="Y74" s="20"/>
@@ -6988,10 +7015,10 @@
     <row r="75" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B75" s="20"/>
       <c r="C75" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E75" s="20">
         <v>2194</v>
@@ -7000,17 +7027,17 @@
         <v>10490</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I75" s="20"/>
       <c r="J75" s="20"/>
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
       <c r="M75" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N75" s="20"/>
       <c r="X75" s="20"/>
@@ -7021,10 +7048,10 @@
     <row r="76" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B76" s="20"/>
       <c r="C76" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E76" s="20">
         <v>2300</v>
@@ -7033,17 +7060,17 @@
         <v>3992</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H76" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I76" s="20"/>
       <c r="J76" s="20"/>
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
       <c r="M76" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N76" s="20"/>
       <c r="X76" s="20"/>
@@ -7054,10 +7081,10 @@
     <row r="77" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B77" s="20"/>
       <c r="C77" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E77" s="20">
         <v>1143</v>
@@ -7066,17 +7093,17 @@
         <v>4318</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H77" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="20"/>
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
       <c r="M77" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N77" s="20"/>
       <c r="X77" s="20"/>
@@ -7087,10 +7114,10 @@
     <row r="78" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B78" s="20"/>
       <c r="C78" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E78" s="20">
         <v>1143</v>
@@ -7099,17 +7126,17 @@
         <v>10000</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I78" s="20"/>
       <c r="J78" s="20"/>
       <c r="K78" s="20"/>
       <c r="L78" s="20"/>
       <c r="M78" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N78" s="20"/>
       <c r="X78" s="20"/>
@@ -7120,10 +7147,10 @@
     <row r="79" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B79" s="20"/>
       <c r="C79" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E79" s="20">
         <v>67</v>
@@ -7132,17 +7159,17 @@
         <v>3331</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
       <c r="K79" s="20"/>
       <c r="L79" s="20"/>
       <c r="M79" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N79" s="20"/>
       <c r="X79" s="20"/>
@@ -7153,10 +7180,10 @@
     <row r="80" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B80" s="20"/>
       <c r="C80" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E80" s="20">
         <v>1369</v>
@@ -7165,17 +7192,17 @@
         <v>6426</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I80" s="20"/>
       <c r="J80" s="20"/>
       <c r="K80" s="20"/>
       <c r="L80" s="20"/>
       <c r="M80" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N80" s="20"/>
       <c r="X80" s="20"/>
@@ -7186,10 +7213,10 @@
     <row r="81" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B81" s="20"/>
       <c r="C81" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E81" s="20">
         <v>60</v>
@@ -7198,17 +7225,17 @@
         <v>1470</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H81" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I81" s="20"/>
       <c r="J81" s="20"/>
       <c r="K81" s="20"/>
       <c r="L81" s="20"/>
       <c r="M81" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N81" s="20"/>
       <c r="X81" s="20"/>
@@ -7219,10 +7246,10 @@
     <row r="82" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B82" s="20"/>
       <c r="C82" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E82" s="20">
         <v>792</v>
@@ -7231,17 +7258,17 @@
         <v>1500</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H82" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I82" s="20"/>
       <c r="J82" s="20"/>
       <c r="K82" s="20"/>
       <c r="L82" s="20"/>
       <c r="M82" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N82" s="20"/>
       <c r="X82" s="20"/>
@@ -7252,10 +7279,10 @@
     <row r="83" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B83" s="20"/>
       <c r="C83" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E83" s="20">
         <v>399</v>
@@ -7264,17 +7291,17 @@
         <v>1125</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I83" s="20"/>
       <c r="J83" s="20"/>
       <c r="K83" s="20"/>
       <c r="L83" s="20"/>
       <c r="M83" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N83" s="20"/>
       <c r="X83" s="20"/>
@@ -7285,10 +7312,10 @@
     <row r="84" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B84" s="20"/>
       <c r="C84" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E84" s="20">
         <v>6</v>
@@ -7297,17 +7324,17 @@
         <v>750</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H84" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I84" s="20"/>
       <c r="J84" s="20"/>
       <c r="K84" s="20"/>
       <c r="L84" s="20"/>
       <c r="M84" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N84" s="20"/>
       <c r="X84" s="20"/>
@@ -7318,10 +7345,10 @@
     <row r="85" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B85" s="20"/>
       <c r="C85" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E85" s="20">
         <v>792</v>
@@ -7330,17 +7357,17 @@
         <v>1500</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I85" s="20"/>
       <c r="J85" s="20"/>
       <c r="K85" s="20"/>
       <c r="L85" s="20"/>
       <c r="M85" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N85" s="20"/>
       <c r="X85" s="20"/>
@@ -7351,10 +7378,10 @@
     <row r="86" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B86" s="20"/>
       <c r="C86" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E86" s="20">
         <v>399</v>
@@ -7363,17 +7390,17 @@
         <v>1125</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H86" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I86" s="20"/>
       <c r="J86" s="20"/>
       <c r="K86" s="20"/>
       <c r="L86" s="20"/>
       <c r="M86" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N86" s="20"/>
       <c r="X86" s="20"/>
@@ -7384,10 +7411,10 @@
     <row r="87" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B87" s="20"/>
       <c r="C87" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E87" s="20">
         <v>1003</v>
@@ -7396,17 +7423,17 @@
         <v>1100</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H87" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I87" s="20"/>
       <c r="J87" s="20"/>
       <c r="K87" s="20"/>
       <c r="L87" s="20"/>
       <c r="M87" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N87" s="20"/>
       <c r="X87" s="20"/>
@@ -7417,10 +7444,10 @@
     <row r="88" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B88" s="20"/>
       <c r="C88" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E88" s="20">
         <v>1068</v>
@@ -7429,17 +7456,17 @@
         <v>2192</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H88" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I88" s="20"/>
       <c r="J88" s="20"/>
       <c r="K88" s="20"/>
       <c r="L88" s="20"/>
       <c r="M88" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N88" s="20"/>
       <c r="X88" s="20"/>
@@ -7450,10 +7477,10 @@
     <row r="89" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B89" s="20"/>
       <c r="C89" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E89" s="20">
         <v>1091</v>
@@ -7462,17 +7489,17 @@
         <v>2192</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H89" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I89" s="20"/>
       <c r="J89" s="20"/>
       <c r="K89" s="20"/>
       <c r="L89" s="20"/>
       <c r="M89" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N89" s="20"/>
       <c r="X89" s="20"/>
@@ -7483,10 +7510,10 @@
     <row r="90" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B90" s="20"/>
       <c r="C90" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E90" s="20">
         <v>698</v>
@@ -7495,17 +7522,17 @@
         <v>1442</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H90" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I90" s="20"/>
       <c r="J90" s="20"/>
       <c r="K90" s="20"/>
       <c r="L90" s="20"/>
       <c r="M90" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N90" s="20"/>
       <c r="X90" s="20"/>
@@ -7516,10 +7543,10 @@
     <row r="91" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B91" s="20"/>
       <c r="C91" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E91" s="20">
         <v>5237</v>
@@ -7528,17 +7555,17 @@
         <v>5945</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H91" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I91" s="20"/>
       <c r="J91" s="20"/>
       <c r="K91" s="20"/>
       <c r="L91" s="20"/>
       <c r="M91" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N91" s="20"/>
       <c r="X91" s="20"/>
@@ -7549,10 +7576,10 @@
     <row r="92" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B92" s="20"/>
       <c r="C92" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E92" s="20">
         <v>4844</v>
@@ -7561,17 +7588,17 @@
         <v>5570</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H92" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I92" s="20"/>
       <c r="J92" s="20"/>
       <c r="K92" s="20"/>
       <c r="L92" s="20"/>
       <c r="M92" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N92" s="20"/>
       <c r="X92" s="20"/>
@@ -7582,10 +7609,10 @@
     <row r="93" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B93" s="20"/>
       <c r="C93" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E93" s="20">
         <v>4451</v>
@@ -7594,17 +7621,17 @@
         <v>5195</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H93" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I93" s="20"/>
       <c r="J93" s="20"/>
       <c r="K93" s="20"/>
       <c r="L93" s="20"/>
       <c r="M93" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N93" s="20"/>
       <c r="X93" s="20"/>
@@ -7615,10 +7642,10 @@
     <row r="94" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B94" s="20"/>
       <c r="C94" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E94" s="20">
         <v>305</v>
@@ -7627,17 +7654,17 @@
         <v>5570</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H94" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I94" s="20"/>
       <c r="J94" s="20"/>
       <c r="K94" s="20"/>
       <c r="L94" s="20"/>
       <c r="M94" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N94" s="20"/>
       <c r="X94" s="20"/>
@@ -7648,10 +7675,10 @@
     <row r="95" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B95" s="20"/>
       <c r="C95" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E95" s="20">
         <v>5929</v>
@@ -7660,17 +7687,17 @@
         <v>6637</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H95" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I95" s="20"/>
       <c r="J95" s="20"/>
       <c r="K95" s="20"/>
       <c r="L95" s="20"/>
       <c r="M95" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N95" s="20"/>
       <c r="X95" s="20"/>
@@ -7681,10 +7708,10 @@
     <row r="96" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B96" s="20"/>
       <c r="C96" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E96" s="20">
         <v>5536</v>
@@ -7693,17 +7720,17 @@
         <v>6262</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H96" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I96" s="20"/>
       <c r="J96" s="20"/>
       <c r="K96" s="20"/>
       <c r="L96" s="20"/>
       <c r="M96" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N96" s="20"/>
       <c r="X96" s="20"/>
@@ -7714,10 +7741,10 @@
     <row r="97" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B97" s="20"/>
       <c r="C97" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E97" s="20">
         <v>5143</v>
@@ -7726,17 +7753,17 @@
         <v>5887</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H97" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I97" s="20"/>
       <c r="J97" s="20"/>
       <c r="K97" s="20"/>
       <c r="L97" s="20"/>
       <c r="M97" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N97" s="20"/>
       <c r="X97" s="20"/>
@@ -7747,10 +7774,10 @@
     <row r="98" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B98" s="20"/>
       <c r="C98" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E98" s="20">
         <v>997</v>
@@ -7759,17 +7786,17 @@
         <v>6262</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H98" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I98" s="20"/>
       <c r="J98" s="20"/>
       <c r="K98" s="20"/>
       <c r="L98" s="20"/>
       <c r="M98" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N98" s="20"/>
       <c r="V98" s="20"/>
@@ -8420,7 +8447,7 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
